--- a/oop.xlsx
+++ b/oop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C407927-6ABD-499C-8A11-3095ACCF10A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E58B0-C619-4B15-9C25-D4ADEEA34475}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23070" yWindow="2490" windowWidth="18480" windowHeight="11805" xr2:uid="{813D0DF5-E196-46FE-837B-41C67C09F026}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Принципы ООП</t>
   </si>
@@ -74,10 +74,13 @@
     <t>Используя модификаторы доступа (public, private, protected и без модификатора)</t>
   </si>
   <si>
-    <t>способность объекта принимать множество различных форм.</t>
-  </si>
-  <si>
-    <t>По срадствам переопределения методов.</t>
+    <t xml:space="preserve">способность объекта принимать множество различных форм. ссылка родительского класса используется для ссылки на объект дочернего. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">По срадствам ссылки на родительский объект, переопределении (@Override) родительского метода. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чтобы абстрагироваться от конкретных реализаций методов. </t>
   </si>
 </sst>
 </file>
@@ -132,13 +135,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,66 +472,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/oop.xlsx
+++ b/oop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E58B0-C619-4B15-9C25-D4ADEEA34475}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0669D0-6299-4B24-A2F5-44542CDB307E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23070" yWindow="2490" windowWidth="18480" windowHeight="11805" xr2:uid="{813D0DF5-E196-46FE-837B-41C67C09F026}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t xml:space="preserve">Чтобы защитить от внешнего вмешательства или неправильного использоватния </t>
   </si>
   <si>
-    <t>Ключевого слова extends</t>
-  </si>
-  <si>
     <t>Чтобы информация становилась управляемой в иерархическом порядке.</t>
   </si>
   <si>
@@ -77,10 +74,13 @@
     <t xml:space="preserve">способность объекта принимать множество различных форм. ссылка родительского класса используется для ссылки на объект дочернего. </t>
   </si>
   <si>
-    <t xml:space="preserve">По срадствам ссылки на родительский объект, переопределении (@Override) родительского метода. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Чтобы абстрагироваться от конкретных реализаций методов. </t>
+  </si>
+  <si>
+    <t>Ключевого слова extends. Реализация интерфейсов(implements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По средствам ссылки на родительский объект, переопределении (@Override) родительского метода. </t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -512,13 +512,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -526,13 +526,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
